--- a/leaderscripts/ScoutingData_template.xlsx
+++ b/leaderscripts/ScoutingData_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\scouting_app_2019\2019_Scouting_App\leaderscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890E0AAF-08D4-42B7-9EF9-B05C7E4D12A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500C362C-DE70-4459-9B7B-568D7BA40D07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="template" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$8:$AB$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$8:$AP$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
   <si>
     <t>Team Number</t>
   </si>
@@ -45,48 +45,18 @@
     <t>Match #</t>
   </si>
   <si>
-    <t>Alliance Station</t>
-  </si>
-  <si>
     <t>Scouter Name</t>
   </si>
   <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
     <t>Auto Stuff</t>
   </si>
   <si>
-    <t>Exchange</t>
-  </si>
-  <si>
-    <t>Cross Line</t>
-  </si>
-  <si>
     <t>Teleop</t>
   </si>
   <si>
     <t>Endgame</t>
   </si>
   <si>
-    <t>DriveOntoPlatform</t>
-  </si>
-  <si>
-    <t>DriveOntoOtherRamps</t>
-  </si>
-  <si>
-    <t>DeployRampsForOtherRobots</t>
-  </si>
-  <si>
-    <t>ClimbSingle</t>
-  </si>
-  <si>
-    <t>ClimbAndLetOtherRobotsClimbOffOfYou</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -96,9 +66,6 @@
     <t>Drive Type</t>
   </si>
   <si>
-    <t>Bumper Height</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -231,12 +198,6 @@
     <t>Pharaohs</t>
   </si>
   <si>
-    <t>Switch Close</t>
-  </si>
-  <si>
-    <t>Switch Far</t>
-  </si>
-  <si>
     <t>Team Summary</t>
   </si>
   <si>
@@ -304,13 +265,43 @@
   </si>
   <si>
     <t>Start Level</t>
+  </si>
+  <si>
+    <t>End Level</t>
+  </si>
+  <si>
+    <t>Alliance Color</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Drivetrain</t>
+  </si>
+  <si>
+    <t>Auton?</t>
+  </si>
+  <si>
+    <t>Comments:</t>
+  </si>
+  <si>
+    <t>Not Us</t>
+  </si>
+  <si>
+    <t>Camera feed to Driver's Station</t>
+  </si>
+  <si>
+    <t>Climb time (in sec)</t>
+  </si>
+  <si>
+    <t>Above ground scoring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,12 +316,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -382,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -457,12 +442,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,7 +499,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -478,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -486,7 +514,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,9 +539,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -811,299 +873,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" customWidth="1"/>
+    <col min="22" max="24" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" customWidth="1"/>
+    <col min="33" max="33" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:48" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:48" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="4" spans="1:48" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:48" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="19"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="4" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:30" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="G8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15" t="s">
+      <c r="H8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15" t="s">
+      <c r="I8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15" t="s">
+      <c r="P8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AD6" s="15"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="17"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R8" s="2" t="s">
+      <c r="V8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="AA8" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+        <v>69</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="12"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="O6:U6"/>
-    <mergeCell ref="V6:AB6"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="AQ6:AV6"/>
+    <mergeCell ref="AQ7:AV7"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="S6:AD6"/>
+    <mergeCell ref="AE6:AP6"/>
+    <mergeCell ref="AE7:AJ7"/>
+    <mergeCell ref="AK7:AP7"/>
+    <mergeCell ref="B6:R6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1128,13 +1303,13 @@
         <v>573</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E1">
         <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,7 +1317,7 @@
         <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,7 +1325,7 @@
         <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1158,7 +1333,7 @@
         <v>835</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1166,7 +1341,7 @@
         <v>1481</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1174,7 +1349,7 @@
         <v>1502</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1182,7 +1357,7 @@
         <v>1701</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,7 +1365,7 @@
         <v>2048</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1198,7 +1373,7 @@
         <v>3302</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1206,7 +1381,7 @@
         <v>3538</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,7 +1389,7 @@
         <v>3547</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1222,7 +1397,7 @@
         <v>4680</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1230,7 +1405,7 @@
         <v>4737</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1238,7 +1413,7 @@
         <v>4758</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,7 +1421,7 @@
         <v>4768</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1254,7 +1429,7 @@
         <v>4838</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
@@ -1262,7 +1437,7 @@
         <v>4840</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
@@ -1270,7 +1445,7 @@
         <v>4854</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
@@ -1278,7 +1453,7 @@
         <v>5065</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
@@ -1286,7 +1461,7 @@
         <v>5167</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
@@ -1294,7 +1469,7 @@
         <v>5197</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
@@ -1302,7 +1477,7 @@
         <v>5217</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.25">
@@ -1310,7 +1485,7 @@
         <v>5436</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.25">
@@ -1318,7 +1493,7 @@
         <v>5467</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.25">
@@ -1326,7 +1501,7 @@
         <v>5531</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.25">
@@ -1334,7 +1509,7 @@
         <v>5619</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.25">
@@ -1342,7 +1517,7 @@
         <v>5642</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.25">
@@ -1350,7 +1525,7 @@
         <v>5843</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.25">
@@ -1358,7 +1533,7 @@
         <v>5901</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.25">
@@ -1366,7 +1541,7 @@
         <v>6057</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.25">
@@ -1374,7 +1549,7 @@
         <v>6136</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.25">
@@ -1382,7 +1557,7 @@
         <v>6150</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
@@ -1390,7 +1565,7 @@
         <v>6567</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
@@ -1398,7 +1573,7 @@
         <v>6633</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
@@ -1406,7 +1581,7 @@
         <v>6742</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.25">
@@ -1414,7 +1589,7 @@
         <v>6862</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.25">
@@ -1422,7 +1597,7 @@
         <v>7196</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.25">
@@ -1430,7 +1605,7 @@
         <v>7218</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.25">
@@ -1438,7 +1613,7 @@
         <v>7232</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1449,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,7 +1640,15 @@
         <v>573</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1476,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,335 +1673,449 @@
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="65.5703125" customWidth="1"/>
-    <col min="20" max="20" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.28515625" customWidth="1"/>
+    <col min="14" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="65.5703125" customWidth="1"/>
+    <col min="22" max="22" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="20"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="32"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="22"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B5" s="33"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="33"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="33"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="33"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="33"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="33"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="33"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="33"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="33"/>
+    </row>
+    <row r="15" spans="1:2" ht="111.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S19" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="T19" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="111.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="16" t="s">
+      <c r="U19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="5" t="e">
-        <f>AVERAGE(E20:E44)</f>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="4" t="e">
+        <f>AVERAGE(E23:E47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="5" t="e">
-        <f t="shared" ref="F17:G17" si="0">AVERAGE(F20:F44)</f>
+      <c r="F20" s="4" t="e">
+        <f t="shared" ref="F20:G20" si="0">AVERAGE(F23:F47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="5" t="e">
+      <c r="G20" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="5" t="e">
-        <f t="shared" ref="H17:J17" si="1">AVERAGE(H20:H44)</f>
+      <c r="H20" s="4" t="e">
+        <f t="shared" ref="H20:J20" si="1">AVERAGE(H23:H47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="5" t="e">
+      <c r="I20" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="5" t="e">
+      <c r="J20" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="5" t="e">
-        <f t="shared" ref="K17:N17" si="2">AVERAGE(K20:K44)</f>
+      <c r="K20" s="4" t="e">
+        <f t="shared" ref="K20:P20" si="2">AVERAGE(K23:K47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="5" t="e">
+      <c r="L20" s="4" t="e">
+        <f t="shared" ref="L20:M20" si="3">AVERAGE(L23:L47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="5" t="e">
+      <c r="O20" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N17" s="5" t="e">
+      <c r="P20" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O17" s="6" t="e">
-        <f>COUNTA(O20:O50)/COUNTA($A$20:$A$50)</f>
+      <c r="Q20" s="5" t="e">
+        <f>COUNTIF($Q$24:$Q$53,0)/COUNTA($A$24:$A$53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P17" s="6" t="e">
-        <f t="shared" ref="P17:R17" si="3">COUNTA(P20:P50)/COUNTA($A$20:$A$50)</f>
+      <c r="R20" s="5" t="e">
+        <f>COUNTIF($Q$24:$Q$53,1)/COUNTA($A$24:$A$53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q17" s="6" t="e">
-        <f t="shared" si="3"/>
+      <c r="S20" s="5" t="e">
+        <f>COUNTIF($Q$24:$Q$53,2)/COUNTA($A$24:$A$53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R17" s="6" t="e">
-        <f t="shared" si="3"/>
+      <c r="T20" s="5" t="e">
+        <f>COUNTIF($Q$24:$Q$53,3)/COUNTA($A$24:$A$53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S17" s="8"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="5">
-        <f>MAX(E20:E44)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" ref="F18:G18" si="4">MAX(F20:F44)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="U20" s="7"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4">
+        <f>MAX(E23:E47)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" ref="F21:G21" si="4">MAX(F23:F47)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H18" s="5">
-        <f t="shared" ref="H18:J18" si="5">MAX(H20:H44)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="H21" s="4">
+        <f t="shared" ref="H21:J21" si="5">MAX(H23:H47)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J21" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K18" s="5">
-        <f t="shared" ref="K18:N18" si="6">MAX(K20:K44)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="5">
+      <c r="K21" s="4">
+        <f t="shared" ref="K21:P21" si="6">MAX(K23:K47)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" ref="L21:M21" si="7">MAX(L23:L47)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M18" s="5">
+      <c r="O21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N18" s="5">
+      <c r="P21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7">
-        <f>MIN(E20:E44)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" ref="F19:G19" si="7">MIN(F20:F44)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <f t="shared" ref="H19:J19" si="8">MIN(H20:H44)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6">
+        <f>MIN(E23:E47)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:G22" si="8">MIN(F23:F47)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J19" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
-        <f t="shared" ref="K19:N19" si="9">MIN(K20:K44)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
+      <c r="H22" s="6">
+        <f t="shared" ref="H22:J22" si="9">MIN(H23:H47)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M19" s="7">
+      <c r="J22" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N19" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-    </row>
-    <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+      <c r="K22" s="6">
+        <f t="shared" ref="K22:P22" si="10">MIN(K23:K47)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" ref="L22:M22" si="11">MIN(L23:L47)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="8"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="K18:P18"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E18:J18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/leaderscripts/ScoutingData_template.xlsx
+++ b/leaderscripts/ScoutingData_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\scouting_app_2019\2019_Scouting_App\leaderscripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\2019_Scouting_App_Team_573\2019_Scouting_App\2019_Scouting_App\leaderscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890E0AAF-08D4-42B7-9EF9-B05C7E4D12A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$8:$AB$8</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="130">
   <si>
     <t>Team Number</t>
   </si>
@@ -304,12 +303,132 @@
   </si>
   <si>
     <t>Start Level</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>1188</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2224</t>
+  </si>
+  <si>
+    <t>2673</t>
+  </si>
+  <si>
+    <t>2834</t>
+  </si>
+  <si>
+    <t>3414</t>
+  </si>
+  <si>
+    <t>3538</t>
+  </si>
+  <si>
+    <t>4377</t>
+  </si>
+  <si>
+    <t>4680</t>
+  </si>
+  <si>
+    <t>4737</t>
+  </si>
+  <si>
+    <t>4851</t>
+  </si>
+  <si>
+    <t>4854</t>
+  </si>
+  <si>
+    <t>5048</t>
+  </si>
+  <si>
+    <t>5436</t>
+  </si>
+  <si>
+    <t>5467</t>
+  </si>
+  <si>
+    <t>5478</t>
+  </si>
+  <si>
+    <t>5531</t>
+  </si>
+  <si>
+    <t>5532</t>
+  </si>
+  <si>
+    <t>5619</t>
+  </si>
+  <si>
+    <t>5756</t>
+  </si>
+  <si>
+    <t>6013</t>
+  </si>
+  <si>
+    <t>6093</t>
+  </si>
+  <si>
+    <t>6117</t>
+  </si>
+  <si>
+    <t>6545</t>
+  </si>
+  <si>
+    <t>6567</t>
+  </si>
+  <si>
+    <t>6616</t>
+  </si>
+  <si>
+    <t>6742</t>
+  </si>
+  <si>
+    <t>7073</t>
+  </si>
+  <si>
+    <t>7191</t>
+  </si>
+  <si>
+    <t>7218</t>
+  </si>
+  <si>
+    <t>7232</t>
+  </si>
+  <si>
+    <t>7692</t>
+  </si>
+  <si>
+    <t>7716</t>
+  </si>
+  <si>
+    <t>7857</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,6 +605,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,10 +625,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -810,158 +929,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="4" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="4" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:30" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:30" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="1:30" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15" t="s">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15" t="s">
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="AD6" s="15"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="AD6" s="17"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="16" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="16" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="16" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="16" t="s">
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="16" t="s">
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="16" t="s">
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="17"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="19"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1071,7 +1190,7 @@
       <c r="O10" s="13"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -1111,19 +1230,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>573</v>
       </c>
@@ -1137,7 +1256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E2">
         <v>67</v>
       </c>
@@ -1145,7 +1264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E3">
         <v>94</v>
       </c>
@@ -1153,7 +1272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E4">
         <v>835</v>
       </c>
@@ -1161,7 +1280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E5">
         <v>1481</v>
       </c>
@@ -1169,7 +1288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E6">
         <v>1502</v>
       </c>
@@ -1177,7 +1296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E7">
         <v>1701</v>
       </c>
@@ -1185,7 +1304,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E8">
         <v>2048</v>
       </c>
@@ -1193,7 +1312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E9">
         <v>3302</v>
       </c>
@@ -1201,7 +1320,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E10">
         <v>3538</v>
       </c>
@@ -1209,7 +1328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E11">
         <v>3547</v>
       </c>
@@ -1217,7 +1336,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E12">
         <v>4680</v>
       </c>
@@ -1225,7 +1344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E13">
         <v>4737</v>
       </c>
@@ -1233,7 +1352,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E14">
         <v>4758</v>
       </c>
@@ -1241,7 +1360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E15">
         <v>4768</v>
       </c>
@@ -1249,7 +1368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E16">
         <v>4838</v>
       </c>
@@ -1257,7 +1376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E17">
         <v>4840</v>
       </c>
@@ -1265,7 +1384,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E18">
         <v>4854</v>
       </c>
@@ -1273,7 +1392,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E19">
         <v>5065</v>
       </c>
@@ -1281,7 +1400,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E20">
         <v>5167</v>
       </c>
@@ -1289,7 +1408,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E21">
         <v>5197</v>
       </c>
@@ -1297,7 +1416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E22">
         <v>5217</v>
       </c>
@@ -1305,7 +1424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E23">
         <v>5436</v>
       </c>
@@ -1313,7 +1432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E24">
         <v>5467</v>
       </c>
@@ -1321,7 +1440,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E25">
         <v>5531</v>
       </c>
@@ -1329,7 +1448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E26">
         <v>5619</v>
       </c>
@@ -1337,7 +1456,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E27">
         <v>5642</v>
       </c>
@@ -1345,7 +1464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E28">
         <v>5843</v>
       </c>
@@ -1353,7 +1472,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E29">
         <v>5901</v>
       </c>
@@ -1361,7 +1480,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E30">
         <v>6057</v>
       </c>
@@ -1369,7 +1488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E31">
         <v>6136</v>
       </c>
@@ -1377,7 +1496,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E32">
         <v>6150</v>
       </c>
@@ -1385,7 +1504,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E33">
         <v>6567</v>
       </c>
@@ -1393,7 +1512,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E34">
         <v>6633</v>
       </c>
@@ -1401,7 +1520,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E35">
         <v>6742</v>
       </c>
@@ -1409,7 +1528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E36">
         <v>6862</v>
       </c>
@@ -1417,7 +1536,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E37">
         <v>7196</v>
       </c>
@@ -1425,7 +1544,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E38">
         <v>7218</v>
       </c>
@@ -1433,7 +1552,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E39">
         <v>7232</v>
       </c>
@@ -1448,24 +1567,216 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>573</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1475,112 +1786,116 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C8" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="M18" sqref="M18:P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="65.5703125" customWidth="1"/>
-    <col min="20" max="20" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.453125" customWidth="1"/>
+    <col min="11" max="13" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.26953125" customWidth="1"/>
+    <col min="16" max="16" width="7.7265625" customWidth="1"/>
+    <col min="17" max="17" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="65.54296875" customWidth="1"/>
+    <col min="22" max="22" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="20"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="111.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="112" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="16" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="16" t="s">
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1612,40 +1927,46 @@
         <v>82</v>
       </c>
       <c r="K16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="U16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="21"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="5" t="e">
         <f>AVERAGE(E20:E44)</f>
         <v>#DIV/0!</v>
@@ -1671,7 +1992,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K17" s="5" t="e">
-        <f t="shared" ref="K17:N17" si="2">AVERAGE(K20:K44)</f>
+        <f t="shared" ref="K17:P17" si="2">AVERAGE(K20:K44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L17" s="5" t="e">
@@ -1686,25 +2007,33 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O17" s="6" t="e">
-        <f>COUNTA(O20:O50)/COUNTA($A$20:$A$50)</f>
+      <c r="O17" s="5" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P17" s="6" t="e">
-        <f t="shared" ref="P17:R17" si="3">COUNTA(P20:P50)/COUNTA($A$20:$A$50)</f>
+      <c r="P17" s="5" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q17" s="6" t="e">
+        <f>COUNTA(Q20:Q50)/COUNTA($A$20:$A$50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" s="6" t="e">
+        <f t="shared" ref="R17:T17" si="3">COUNTA(R20:R50)/COUNTA($A$20:$A$50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R17" s="6" t="e">
+      <c r="T17" s="6" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S17" s="8"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U17" s="8"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1736,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" ref="K18:N18" si="6">MAX(K20:K44)</f>
+        <f t="shared" ref="K18:P18" si="6">MAX(K20:K44)</f>
         <v>0</v>
       </c>
       <c r="L18" s="5">
@@ -1748,16 +2077,24 @@
         <v>0</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+        <f t="shared" ref="N18:P18" si="7">MAX(N20:N44)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+    </row>
+    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -1769,54 +2106,62 @@
         <v>0</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" ref="F19:G19" si="7">MIN(F20:F44)</f>
+        <f t="shared" ref="F19:G19" si="8">MIN(F20:F44)</f>
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" ref="H19:J19" si="8">MIN(H20:H44)</f>
+        <f t="shared" ref="H19:J19" si="9">MIN(H20:H44)</f>
         <v>0</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" ref="K19:N19" si="9">MIN(K20:K44)</f>
+        <f t="shared" ref="K19:P19" si="10">MIN(K20:K44)</f>
         <v>0</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
+        <f t="shared" ref="N19:P19" si="11">MIN(N20:N44)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
-    </row>
-    <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="1:21" ht="18" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="K15:P15"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E15:J15"/>
   </mergeCells>
